--- a/generatortests/rand_test/T9/eq9.xlsx
+++ b/generatortests/rand_test/T9/eq9.xlsx
@@ -447,11 +447,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akkermansia_muciniphila</t>
+          <t>'Akkermansia_muciniphila_ATCC_BAA_835.mat'</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1114378032098345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -460,11 +460,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alistipes_finegoldii</t>
+          <t>'Alistipes_finegoldii_DSM_17242.mat'</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.00419075044700661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -473,11 +473,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alistipes_indistinctus</t>
+          <t>'Alistipes_indistinctus_YIT_12060.mat'</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001096542458213363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -486,11 +486,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alistipes_putredinis</t>
+          <t>'Alistipes_putredinis_DSM_17216.mat'</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003886448742226392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -499,11 +499,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anaerostipes_caccae</t>
+          <t>'Anaerostipes_caccae_DSM_14662.mat'</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.001335027238862212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -512,11 +512,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bacteroides_cellulosilyticus</t>
+          <t>'Bacteroides_cellulosilyticus_DSM_14838.mat'</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2045021213769713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -525,11 +525,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bacteroides_coprophilus</t>
+          <t>'Bacteroides_coprophilus_DSM_18228.mat'</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.001319588701103002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -538,11 +538,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bacteroides_fragilis</t>
+          <t>'Bacteroides_fragilis_3_1_12.mat'</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01883217212507003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -551,11 +551,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bacteroides_oleiciplenus</t>
+          <t>'Bacteroides_oleiciplenus_YIT_12058.mat'</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.001451628826675193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -564,11 +564,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bacteroides_ovatus</t>
+          <t>'Bacteroides_ovatus_ATCC_8483.mat'</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.003279470441903767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -577,11 +577,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bacteroides_plebeius</t>
+          <t>'Bacteroides_plebeius_M12_DSM_17135.mat'</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.008308370978311698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -590,11 +590,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bacteroides_salyersiae</t>
+          <t>'Bacteroides_salyersiae_WAL_10018.mat'</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0132279829184768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -603,11 +603,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bacteroides_stercoris</t>
+          <t>'Bacteroides_stercoris_ATCC_43183.mat'</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.00102178743327403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -616,11 +616,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bacteroides_thetaiotaomicron</t>
+          <t>'Bacteroides_thetaiotaomicron_VPI_5482.mat'</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.04597921566540301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -629,11 +629,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bacteroides_uniformis</t>
+          <t>'Bacteroides_uniformis_ATCC_8492.mat'</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.07328064458332809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -642,11 +642,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bacteroides_vulgatus</t>
+          <t>'Bacteroides_vulgatus_ATCC_8482.mat'</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.05855999882992135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -655,11 +655,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Barnesiella_intestinihominis</t>
+          <t>'Barnesiella_intestinihominis_YIT_11860.mat'</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.009551173267928103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -668,11 +668,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bifidobacterium_animalis</t>
+          <t>'Bifidobacterium_animalis_lactis_AD011.mat'</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02409346328248502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -681,11 +681,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bilophila_wadsworthia</t>
+          <t>'Bilophila_wadsworthia_3_1_6.mat'</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01024509491247365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -694,11 +694,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dorea_longicatena</t>
+          <t>'Dorea_longicatena_DSM_13814.mat'</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.001287899070965676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -707,11 +707,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Escherichia_coli</t>
+          <t>'Escherichia_coli_O157_H7_str_Sakai.mat'</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.02179515254290999</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="23">
@@ -720,11 +720,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Eubacterium_limosum</t>
+          <t>'Eubacterium_limosum_KIST612.mat'</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001404500658778657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -733,11 +733,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Eubacterium_ramulus</t>
+          <t>'Eubacterium_ramulus_ATCC_29099.mat'</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.001092073407809381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -746,11 +746,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Flavonifractor_plautii</t>
+          <t>'Flavonifractor_plautii_ATCC_29863.mat'</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.005728103785976364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -759,11 +759,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Marvinbryantia_formatexigens</t>
+          <t>'Marvinbryantia_formatexigens_I_52_DSM_14469.mat'</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.003097051929959417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -772,11 +772,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Odoribacter_splanchnicus</t>
+          <t>'Odoribacter_splanchnicus_1651_6_DSM_20712.mat'</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.002440507797883539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -785,11 +785,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parabacteroides_distasonis</t>
+          <t>'Parabacteroides_distasonis_ATCC_8503.mat'</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.02387691747654663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -798,11 +798,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parabacteroides_johnsonii</t>
+          <t>'Parabacteroides_johnsonii_DSM_18315.mat'</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.001488600061835406</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="30">
@@ -811,11 +811,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Paraprevotella_xylaniphila</t>
+          <t>'Paraprevotella_xylaniphila_YIT_11841.mat'</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.004957395729944222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -824,11 +824,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parasutterella_excrementihominis</t>
+          <t>'Parasutterella_excrementihominis_YIT_11859.mat'</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01551288650683988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -837,11 +837,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Phascolarctobacterium_succinatutens</t>
+          <t>'Phascolarctobacterium_succinatutens_YIT_12067.mat'</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.00447433200900473</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="33">
@@ -850,11 +850,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Prevotella_copri</t>
+          <t>'Prevotella_copri_CB7_DSM_18205.mat'</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2129315629935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -863,11 +863,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Prevotella_stercorea</t>
+          <t>'Prevotella_stercorea_DSM_18206.mat'</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.004333760059934029</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="35">
@@ -876,11 +876,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Roseburia_inulinivorans</t>
+          <t>'Roseburia_inulinivorans_DSM_16841.mat'</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.001213144046026344</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36">
@@ -889,11 +889,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sutterella_wadsworthensis</t>
+          <t>'Sutterella_wadsworthensis_3_1_45B.mat'</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.007400747468993931</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
